--- a/data/GestureData/Circle_V03_Christian_Raw_labels.xlsx
+++ b/data/GestureData/Circle_V03_Christian_Raw_labels.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>label</t>
   </si>
@@ -38,12 +32,6 @@
   <si>
     <t>diff</t>
   </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
 </sst>
 </file>
 
@@ -55,6 +43,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -411,215 +400,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>9.25</v>
+      </c>
+      <c r="B2">
+        <v>11.75</v>
+      </c>
+      <c r="C2">
+        <f>(B2-A2)-2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>14.4</v>
+      </c>
+      <c r="B3">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C15" si="0">(B3-A3)-2</f>
+        <v>0.45000000000000107</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B4">
+        <v>21.8</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000213</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>21.8</v>
+      </c>
+      <c r="B5">
+        <v>23.9</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>23.9</v>
+      </c>
+      <c r="B6">
+        <v>26.25</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>29.3</v>
+      </c>
+      <c r="B7">
+        <v>31.8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>34.5</v>
+      </c>
+      <c r="B8">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="B9">
+        <v>43.55</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="D2">
-        <v>9.23</v>
-      </c>
-      <c r="E2">
-        <v>11.73</v>
-      </c>
-      <c r="F2">
-        <f>(E2-D2)-2</f>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>46.6</v>
+      </c>
+      <c r="B10">
+        <v>49.1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="D3">
-        <v>14.4</v>
-      </c>
-      <c r="E3">
-        <v>16.86</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F15" si="0">(E3-D3)-2</f>
-        <v>0.45999999999999908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="D4">
-        <v>19.420000000000002</v>
-      </c>
-      <c r="E4">
-        <v>21.82</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.39999999999999858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="D5">
-        <v>21.82</v>
-      </c>
-      <c r="E5">
-        <v>23.89</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000284E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="D6">
-        <v>23.89</v>
-      </c>
-      <c r="E6">
-        <v>26.25</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.35999999999999943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="D7">
-        <v>29.29</v>
-      </c>
-      <c r="E7">
-        <v>31.81</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.51999999999999957</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="D8">
-        <v>34.51</v>
-      </c>
-      <c r="E8">
-        <v>37.01</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="D9">
-        <v>40.54</v>
-      </c>
-      <c r="E9">
-        <v>43.54</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
       <c r="D10">
-        <v>46.6</v>
-      </c>
-      <c r="E10">
-        <v>49.1</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>51.2</v>
+      </c>
+      <c r="B11">
+        <v>53.85</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.64999999999999858</v>
+      </c>
       <c r="D11">
-        <v>51.2</v>
-      </c>
-      <c r="E11">
-        <v>53.83</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.62999999999999545</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>55.55</v>
+      </c>
+      <c r="B12">
+        <v>57.9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000142</v>
+      </c>
       <c r="D12">
-        <v>55.56</v>
-      </c>
-      <c r="E12">
-        <v>57.9</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.33999999999999631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>60.5</v>
+      </c>
+      <c r="B13">
+        <v>62.7</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000284</v>
+      </c>
       <c r="D13">
-        <v>60.5</v>
-      </c>
-      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>62.7</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="B14">
+        <v>65.05</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.34999999999999432</v>
+      </c>
       <c r="D14">
-        <v>62.7</v>
-      </c>
-      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>65.05</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.34999999999999432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="B15">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000853</v>
+      </c>
       <c r="D15">
-        <v>65.05</v>
-      </c>
-      <c r="E15">
-        <v>67.150000000000006</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.10000000000000853</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
